--- a/stations_info.xlsx
+++ b/stations_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gstafylopatis\PycharmProjects\earthquake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A3A78-2BF8-4423-B06F-4AB008FEAB9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E03E1BA-43D1-4F18-88B7-415010DA6838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{AB237251-51EF-411B-B147-57276ECA3608}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="714">
   <si>
     <t>ANKY</t>
   </si>
@@ -2165,6 +2165,18 @@
   </si>
   <si>
     <t>Max_amp</t>
+  </si>
+  <si>
+    <t>Link = http://bbnet.gein.noa.gr/Events/2020/10/noa2020ubdoy_info.html</t>
+  </si>
+  <si>
+    <t>LINK = http://bbnet.gein.noa.gr/Events/2020/10/noa2020utalj_info.html</t>
+  </si>
+  <si>
+    <t>Measured Magnitude = 5.4</t>
+  </si>
+  <si>
+    <t>Lat,Lon = (37.1622   20.4025)</t>
   </si>
 </sst>
 </file>
@@ -2216,7 +2228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2227,6 +2239,9 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2544,7 +2559,7 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3919,7 +3934,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>499</v>
       </c>
@@ -3936,7 +3951,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>504</v>
       </c>
@@ -3952,11 +3967,8 @@
       <c r="E82" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="I82" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>509</v>
       </c>
@@ -3973,7 +3985,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>660</v>
       </c>
@@ -3990,7 +4002,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>145</v>
       </c>
@@ -4007,7 +4019,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>150</v>
       </c>
@@ -4024,7 +4036,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>155</v>
       </c>
@@ -4041,7 +4053,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>316</v>
       </c>
@@ -4058,7 +4070,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>321</v>
       </c>
@@ -4075,7 +4087,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>514</v>
       </c>
@@ -4092,7 +4104,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>160</v>
       </c>
@@ -4109,7 +4121,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>663</v>
       </c>
@@ -4126,7 +4138,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>668</v>
       </c>
@@ -4143,7 +4155,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>165</v>
       </c>
@@ -4160,7 +4172,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>672</v>
       </c>
@@ -4177,7 +4189,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>170</v>
       </c>
@@ -5055,18 +5067,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF5FAF5-E16E-416B-BC3A-511DE8781FF6}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -5156,7 +5169,110 @@
         <v>49.1</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C8" t="s">
+        <v>517</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.95917824074074076</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.9593287037037036</v>
+      </c>
+      <c r="F8" s="4">
+        <f>218570 *H1</f>
+        <v>218.57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.95918981481481491</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.95934027777777775</v>
+      </c>
+      <c r="F9" s="4">
+        <f>155352*H1</f>
+        <v>155.352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>597</v>
+      </c>
+      <c r="B10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C10" t="s">
+        <v>600</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.95921296296296299</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.95937499999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <f>212232*H1</f>
+        <v>212.232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/stations_info.xlsx
+++ b/stations_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gstafylopatis\PycharmProjects\earthquake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E03E1BA-43D1-4F18-88B7-415010DA6838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAC3B80-7C04-4BA8-A859-5F125D3F29D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{AB237251-51EF-411B-B147-57276ECA3608}"/>
   </bookViews>
@@ -5070,7 +5070,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
